--- a/Sistem Pendukung Keputusan/minggu3/Fany Ervansyah AHP.xlsx
+++ b/Sistem Pendukung Keputusan/minggu3/Fany Ervansyah AHP.xlsx
@@ -73,7 +73,7 @@
     <t>STEP 4</t>
   </si>
   <si>
-    <t>Membagi Hasil perkalian Matrix dengan Beban Prioritas</t>
+    <t>Membagi Hasil perkalian Matrix dengan Bobot Prioritas</t>
   </si>
   <si>
     <t>STEP 5</t>
@@ -188,10 +188,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -219,24 +219,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,6 +242,90 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -257,10 +334,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,90 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -413,13 +413,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,163 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,6 +736,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -751,17 +775,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,40 +809,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,130 +832,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1369,8 +1369,8 @@
   <sheetPr/>
   <dimension ref="A2:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="K147" sqref="K147"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="M14" s="8">
         <f>$L$14/3</f>
-        <v>0.0806878306878307</v>
+        <v>0.0806878306878308</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1652,7 +1652,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="14">
         <f>$L$14/3</f>
-        <v>0.0806878306878307</v>
+        <v>0.0806878306878308</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="14">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="I32" s="8">
         <f>(I28-3)/(3-1)</f>
-        <v>0.0475968052552149</v>
+        <v>0.0475968052552167</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I36" s="8">
         <f>I32/0.58</f>
-        <v>0.0820634573365775</v>
+        <v>0.0820634573365805</v>
       </c>
     </row>
     <row r="38" spans="2:2">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="K146" s="8">
         <f>M14</f>
-        <v>0.0806878306878307</v>
+        <v>0.0806878306878308</v>
       </c>
       <c r="L146" s="8"/>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="L149" s="15">
         <f>($I$146*I149)+($J$146*J149)+($K$146*K149)</f>
-        <v>0.0758628162731641</v>
+        <v>0.0758628162731642</v>
       </c>
     </row>
     <row r="153" spans="1:1">
